--- a/pss_test_case.xlsx
+++ b/pss_test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songxiaolong/work/workspace/pythonProjectDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8175A86F-21C6-134B-8F24-6A4643E6F64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A89FA9-F9F2-6041-A8EC-7576F1B67FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{79CCD3DD-490A-564B-B0CC-9D0C43A9FBD4}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,51 @@
 	"dutyStartDate": "2021-04-10",
 	"hospitalId": "${pageListHospital.records.hospitalId}",
 	"pageSize": 20
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAppointmentRemaining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAppointmentSourceDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"doctorId": "${pageListDoctorByDateRange.records.doctorId}",
+	"dutyDate": "${getAppointmentRemaining.dutyDate}"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAppointmentRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"appointmentSourceId": "${getAppointmentSourceDay.pm.appointmentSourceId}"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentUserGetDetailByAppointmentRecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appointmentRecordId=${getAppointmentSourceDay.pm.appointmentSourceId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentUserListAppointmentRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"doctorId": "${pageListDoctorByDateRange.records.doctorId}",
+	"endDate": "2021-09-30",
+	"startDate": "2021-06-30"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,16 +684,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E1AC88-9FF8-784B-80C3-EFC1D58E818A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -660,20 +705,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="68">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="136">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="119">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="119">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="85">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/pss_test_case.xlsx
+++ b/pss_test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songxiaolong/work/workspace/pythonProjectDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A89FA9-F9F2-6041-A8EC-7576F1B67FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404416AE-2A41-554C-9CFA-0412937F2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{79CCD3DD-490A-564B-B0CC-9D0C43A9FBD4}"/>
   </bookViews>
@@ -687,8 +687,8 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/pss_test_case.xlsx
+++ b/pss_test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songxiaolong/work/workspace/pythonProjectDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404416AE-2A41-554C-9CFA-0412937F2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27E81A4-55AA-8F4B-BA2D-8218972EAA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{79CCD3DD-490A-564B-B0CC-9D0C43A9FBD4}"/>
   </bookViews>
@@ -687,8 +687,8 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
